--- a/data/input/employee_absence_data_48.xlsx
+++ b/data/input/employee_absence_data_48.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51474</v>
+        <v>51938</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dra. Eloah Lima</t>
+          <t>Sra. Lavínia Freitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>3892.27</v>
+        <v>3907.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57305</v>
+        <v>39741</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Viana</t>
+          <t>Bruna Rocha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,172 +511,172 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>10896.46</v>
+        <v>2075.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70724</v>
+        <v>39649</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Gustavo Santos</t>
+          <t>Dra. Ana Clara Costela</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>2669.46</v>
+        <v>4194.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56477</v>
+        <v>4527</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maysa Andrade</t>
+          <t>Maria Liz da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45098</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>8079.76</v>
+        <v>7381.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26986</v>
+        <v>76910</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Gonçalves</t>
+          <t>Dra. Bárbara Martins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>6528.05</v>
+        <v>9245.84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>82232</v>
+        <v>17876</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anthony Gabriel Nascimento</t>
+          <t>Carlos Eduardo Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45095</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>7421.74</v>
+        <v>6640.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77202</v>
+        <v>64927</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thales Albuquerque</t>
+          <t>Ravy Gomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>6841.1</v>
+        <v>3310.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35789</v>
+        <v>19507</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caroline Sá</t>
+          <t>Alana das Neves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,22 +685,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>4412.75</v>
+        <v>4478.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>40889</v>
+        <v>38452</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valentim Monteiro</t>
+          <t>Kaique Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45090</v>
+        <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>9552.98</v>
+        <v>3087.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73597</v>
+        <v>24048</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Agatha Mendonça</t>
+          <t>Julia Fogaça</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>9046.23</v>
+        <v>6623.87</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_48.xlsx
+++ b/data/input/employee_absence_data_48.xlsx
@@ -464,45 +464,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>51938</v>
+        <v>43772</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Lavínia Freitas</t>
+          <t>Juliana da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45081</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>3907.6</v>
+        <v>9177.549999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39741</v>
+        <v>67701</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bruna Rocha</t>
+          <t>Gabriel Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,80 +511,80 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>2075.68</v>
+        <v>3170.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39649</v>
+        <v>62307</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dra. Ana Clara Costela</t>
+          <t>Dr. Gael Henrique Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G4" t="n">
-        <v>4194.79</v>
+        <v>7900.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4527</v>
+        <v>64761</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Liz da Cunha</t>
+          <t>Theo Silva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45082</v>
+        <v>45095</v>
       </c>
       <c r="G5" t="n">
-        <v>7381.91</v>
+        <v>4118.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76910</v>
+        <v>37508</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Bárbara Martins</t>
+          <t>Eduardo Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -598,22 +598,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>9245.84</v>
+        <v>4844.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17876</v>
+        <v>30204</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Araújo</t>
+          <t>Sra. Isadora Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,133 +623,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45094</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>6640.7</v>
+        <v>2255.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64927</v>
+        <v>51898</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ravy Gomes</t>
+          <t>Ana Vitória Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>3310.16</v>
+        <v>9227.059999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19507</v>
+        <v>78224</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alana das Neves</t>
+          <t>Luna Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>4478.38</v>
+        <v>6587.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>38452</v>
+        <v>62566</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kaique Castro</t>
+          <t>Sr. Anthony Gabriel da Mata</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="G10" t="n">
-        <v>3087.43</v>
+        <v>6024.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>24048</v>
+        <v>7488</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Julia Fogaça</t>
+          <t>Benício Sampaio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>6623.87</v>
+        <v>7625.58</v>
       </c>
     </row>
   </sheetData>
